--- a/second_pass/welfare_results/3282_NC/human_welfare/human_wWL_3282.xlsx
+++ b/second_pass/welfare_results/3282_NC/human_welfare/human_wWL_3282.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avg_welfare_per_capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forebrain_neurons</t>
   </si>
 </sst>
 </file>
@@ -368,6 +371,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -382,6 +388,9 @@
       <c r="D2" t="n">
         <v>39.5216474152047</v>
       </c>
+      <c r="E2" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -396,6 +405,9 @@
       <c r="D3" t="n">
         <v>39.5105736811384</v>
       </c>
+      <c r="E3" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -410,6 +422,9 @@
       <c r="D4" t="n">
         <v>39.4676451383358</v>
       </c>
+      <c r="E4" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -424,6 +439,9 @@
       <c r="D5" t="n">
         <v>39.3981819385328</v>
       </c>
+      <c r="E5" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -438,6 +456,9 @@
       <c r="D6" t="n">
         <v>39.3304351603809</v>
       </c>
+      <c r="E6" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -452,6 +473,9 @@
       <c r="D7" t="n">
         <v>39.2619933901231</v>
       </c>
+      <c r="E7" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -466,6 +490,9 @@
       <c r="D8" t="n">
         <v>39.1853632470688</v>
       </c>
+      <c r="E8" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -480,6 +507,9 @@
       <c r="D9" t="n">
         <v>39.1067158683441</v>
       </c>
+      <c r="E9" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -494,6 +524,9 @@
       <c r="D10" t="n">
         <v>39.0254477819116</v>
       </c>
+      <c r="E10" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -508,6 +541,9 @@
       <c r="D11" t="n">
         <v>38.946809987275</v>
       </c>
+      <c r="E11" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -522,6 +558,9 @@
       <c r="D12" t="n">
         <v>38.8685020409508</v>
       </c>
+      <c r="E12" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +575,9 @@
       <c r="D13" t="n">
         <v>38.809517487665</v>
       </c>
+      <c r="E13" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -550,6 +592,9 @@
       <c r="D14" t="n">
         <v>38.740561599161</v>
       </c>
+      <c r="E14" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -564,6 +609,9 @@
       <c r="D15" t="n">
         <v>38.6698914078008</v>
       </c>
+      <c r="E15" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -578,6 +626,9 @@
       <c r="D16" t="n">
         <v>38.5989221886834</v>
       </c>
+      <c r="E16" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -592,6 +643,9 @@
       <c r="D17" t="n">
         <v>38.5303918094209</v>
       </c>
+      <c r="E17" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -606,6 +660,9 @@
       <c r="D18" t="n">
         <v>38.4615091956948</v>
       </c>
+      <c r="E18" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -620,6 +677,9 @@
       <c r="D19" t="n">
         <v>38.3981715350963</v>
       </c>
+      <c r="E19" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -634,6 +694,9 @@
       <c r="D20" t="n">
         <v>38.3371676758053</v>
       </c>
+      <c r="E20" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -648,6 +711,9 @@
       <c r="D21" t="n">
         <v>38.2771813336578</v>
       </c>
+      <c r="E21" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -662,6 +728,9 @@
       <c r="D22" t="n">
         <v>38.216524571687</v>
       </c>
+      <c r="E22" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -676,6 +745,9 @@
       <c r="D23" t="n">
         <v>38.1554040097117</v>
       </c>
+      <c r="E23" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -690,6 +762,9 @@
       <c r="D24" t="n">
         <v>38.0881235641232</v>
       </c>
+      <c r="E24" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -704,6 +779,9 @@
       <c r="D25" t="n">
         <v>38.0184069006328</v>
       </c>
+      <c r="E25" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -718,6 +796,9 @@
       <c r="D26" t="n">
         <v>37.9494473492166</v>
       </c>
+      <c r="E26" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -732,6 +813,9 @@
       <c r="D27" t="n">
         <v>37.8822341656348</v>
       </c>
+      <c r="E27" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -746,6 +830,9 @@
       <c r="D28" t="n">
         <v>37.8175410039456</v>
       </c>
+      <c r="E28" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -760,6 +847,9 @@
       <c r="D29" t="n">
         <v>37.7542550161157</v>
       </c>
+      <c r="E29" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -774,6 +864,9 @@
       <c r="D30" t="n">
         <v>37.6948080925881</v>
       </c>
+      <c r="E30" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -788,6 +881,9 @@
       <c r="D31" t="n">
         <v>37.6428212129706</v>
       </c>
+      <c r="E31" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -802,6 +898,9 @@
       <c r="D32" t="n">
         <v>37.5904836503274</v>
       </c>
+      <c r="E32" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -816,6 +915,9 @@
       <c r="D33" t="n">
         <v>37.6925350326392</v>
       </c>
+      <c r="E33" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -830,6 +932,9 @@
       <c r="D34" t="n">
         <v>38.198605171537</v>
       </c>
+      <c r="E34" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -844,6 +949,9 @@
       <c r="D35" t="n">
         <v>38.8360425088829</v>
       </c>
+      <c r="E35" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -858,6 +966,9 @@
       <c r="D36" t="n">
         <v>38.8770198731753</v>
       </c>
+      <c r="E36" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -872,6 +983,9 @@
       <c r="D37" t="n">
         <v>38.8568594965848</v>
       </c>
+      <c r="E37" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -886,6 +1000,9 @@
       <c r="D38" t="n">
         <v>38.840129545812</v>
       </c>
+      <c r="E38" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -900,6 +1017,9 @@
       <c r="D39" t="n">
         <v>38.8234945094848</v>
       </c>
+      <c r="E39" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -914,6 +1034,9 @@
       <c r="D40" t="n">
         <v>39.1195236260536</v>
       </c>
+      <c r="E40" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -928,6 +1051,9 @@
       <c r="D41" t="n">
         <v>39.0704899541842</v>
       </c>
+      <c r="E41" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -942,6 +1068,9 @@
       <c r="D42" t="n">
         <v>39.5825070804277</v>
       </c>
+      <c r="E42" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -956,6 +1085,9 @@
       <c r="D43" t="n">
         <v>39.5588545407763</v>
       </c>
+      <c r="E43" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -970,6 +1102,9 @@
       <c r="D44" t="n">
         <v>39.5994100732702</v>
       </c>
+      <c r="E44" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -984,6 +1119,9 @@
       <c r="D45" t="n">
         <v>39.5683155563944</v>
       </c>
+      <c r="E45" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -998,6 +1136,9 @@
       <c r="D46" t="n">
         <v>39.5354306480795</v>
       </c>
+      <c r="E46" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1012,6 +1153,9 @@
       <c r="D47" t="n">
         <v>39.4971568075333</v>
       </c>
+      <c r="E47" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1026,6 +1170,9 @@
       <c r="D48" t="n">
         <v>39.5922725665107</v>
       </c>
+      <c r="E48" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1040,6 +1187,9 @@
       <c r="D49" t="n">
         <v>39.8215886075551</v>
       </c>
+      <c r="E49" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1054,6 +1204,9 @@
       <c r="D50" t="n">
         <v>41.13926010617</v>
       </c>
+      <c r="E50" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1068,6 +1221,9 @@
       <c r="D51" t="n">
         <v>41.0485248066071</v>
       </c>
+      <c r="E51" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1082,6 +1238,9 @@
       <c r="D52" t="n">
         <v>41.1270472178065</v>
       </c>
+      <c r="E52" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1096,6 +1255,9 @@
       <c r="D53" t="n">
         <v>42.693271333004</v>
       </c>
+      <c r="E53" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1110,6 +1272,9 @@
       <c r="D54" t="n">
         <v>42.1458745042585</v>
       </c>
+      <c r="E54" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1124,6 +1289,9 @@
       <c r="D55" t="n">
         <v>42.1573676305404</v>
       </c>
+      <c r="E55" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1138,6 +1306,9 @@
       <c r="D56" t="n">
         <v>42.8848290549105</v>
       </c>
+      <c r="E56" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1152,6 +1323,9 @@
       <c r="D57" t="n">
         <v>42.8214410140727</v>
       </c>
+      <c r="E57" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1166,6 +1340,9 @@
       <c r="D58" t="n">
         <v>42.8398085566697</v>
       </c>
+      <c r="E58" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1180,6 +1357,9 @@
       <c r="D59" t="n">
         <v>42.8544129288158</v>
       </c>
+      <c r="E59" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1194,6 +1374,9 @@
       <c r="D60" t="n">
         <v>43.3571426787558</v>
       </c>
+      <c r="E60" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1208,6 +1391,9 @@
       <c r="D61" t="n">
         <v>43.3089178164169</v>
       </c>
+      <c r="E61" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1222,6 +1408,9 @@
       <c r="D62" t="n">
         <v>43.2051139419221</v>
       </c>
+      <c r="E62" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1236,6 +1425,9 @@
       <c r="D63" t="n">
         <v>52.1713125745295</v>
       </c>
+      <c r="E63" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1250,6 +1442,9 @@
       <c r="D64" t="n">
         <v>53.8140407167386</v>
       </c>
+      <c r="E64" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1263,6 +1458,9 @@
       </c>
       <c r="D65" t="n">
         <v>54.393350519733</v>
+      </c>
+      <c r="E65" t="n">
+        <v>24560000000</v>
       </c>
     </row>
   </sheetData>

--- a/second_pass/welfare_results/3282_NC/human_welfare/human_wWL_3282.xlsx
+++ b/second_pass/welfare_results/3282_NC/human_welfare/human_wWL_3282.xlsx
@@ -380,13 +380,13 @@
         <v>1960</v>
       </c>
       <c r="B2" t="n">
-        <v>118992863792</v>
+        <v>95332607662.6801</v>
       </c>
       <c r="C2" t="n">
         <v>3010827523</v>
       </c>
       <c r="D2" t="n">
-        <v>39.5216474152047</v>
+        <v>31.6632576706654</v>
       </c>
       <c r="E2" t="n">
         <v>24560000000</v>
@@ -397,13 +397,13 @@
         <v>1961</v>
       </c>
       <c r="B3" t="n">
-        <v>120574304742</v>
+        <v>96645463464.3741</v>
       </c>
       <c r="C3" t="n">
         <v>3051697141</v>
       </c>
       <c r="D3" t="n">
-        <v>39.5105736811384</v>
+        <v>31.6694150824891</v>
       </c>
       <c r="E3" t="n">
         <v>24560000000</v>
@@ -414,13 +414,13 @@
         <v>1962</v>
       </c>
       <c r="B4" t="n">
-        <v>122583372858</v>
+        <v>98303248453.8944</v>
       </c>
       <c r="C4" t="n">
         <v>3105920620</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4676451383358</v>
+        <v>31.6502771580474</v>
       </c>
       <c r="E4" t="n">
         <v>24560000000</v>
@@ -431,13 +431,13 @@
         <v>1963</v>
       </c>
       <c r="B5" t="n">
-        <v>124979736522</v>
+        <v>100266051968.567</v>
       </c>
       <c r="C5" t="n">
         <v>3172220909</v>
       </c>
       <c r="D5" t="n">
-        <v>39.3981819385328</v>
+        <v>31.6075250888421</v>
       </c>
       <c r="E5" t="n">
         <v>24560000000</v>
@@ -448,13 +448,13 @@
         <v>1964</v>
       </c>
       <c r="B6" t="n">
-        <v>127391738274</v>
+        <v>102242615704.513</v>
       </c>
       <c r="C6" t="n">
         <v>3239011665</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3304351603809</v>
+        <v>31.5659918145163</v>
       </c>
       <c r="E6" t="n">
         <v>24560000000</v>
@@ -465,13 +465,13 @@
         <v>1965</v>
       </c>
       <c r="B7" t="n">
-        <v>129813805312</v>
+        <v>104226111757.66</v>
       </c>
       <c r="C7" t="n">
         <v>3306347796</v>
       </c>
       <c r="D7" t="n">
-        <v>39.2619933901231</v>
+        <v>31.5230333250943</v>
       </c>
       <c r="E7" t="n">
         <v>24560000000</v>
@@ -482,13 +482,13 @@
         <v>1966</v>
       </c>
       <c r="B8" t="n">
-        <v>132290545852</v>
+        <v>106251640533.178</v>
       </c>
       <c r="C8" t="n">
         <v>3376019383</v>
       </c>
       <c r="D8" t="n">
-        <v>39.1853632470688</v>
+        <v>31.4724616417222</v>
       </c>
       <c r="E8" t="n">
         <v>24560000000</v>
@@ -499,13 +499,13 @@
         <v>1967</v>
       </c>
       <c r="B9" t="n">
-        <v>134754117542</v>
+        <v>108276147758.46</v>
       </c>
       <c r="C9" t="n">
         <v>3445805012</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1067158683441</v>
+        <v>31.4225986036322</v>
       </c>
       <c r="E9" t="n">
         <v>24560000000</v>
@@ -516,13 +516,13 @@
         <v>1968</v>
       </c>
       <c r="B10" t="n">
-        <v>137258549730</v>
+        <v>110336920713.445</v>
       </c>
       <c r="C10" t="n">
         <v>3517155024</v>
       </c>
       <c r="D10" t="n">
-        <v>39.0254477819116</v>
+        <v>31.3710712096964</v>
       </c>
       <c r="E10" t="n">
         <v>24560000000</v>
@@ -533,13 +533,13 @@
         <v>1969</v>
       </c>
       <c r="B11" t="n">
-        <v>139848560228</v>
+        <v>112461077294.007</v>
       </c>
       <c r="C11" t="n">
         <v>3590757761</v>
       </c>
       <c r="D11" t="n">
-        <v>38.946809987275</v>
+        <v>31.319594575683</v>
       </c>
       <c r="E11" t="n">
         <v>24560000000</v>
@@ -550,13 +550,13 @@
         <v>1970</v>
       </c>
       <c r="B12" t="n">
-        <v>142492600674</v>
+        <v>114631321555.073</v>
       </c>
       <c r="C12" t="n">
         <v>3666017294</v>
       </c>
       <c r="D12" t="n">
-        <v>38.8685020409508</v>
+        <v>31.268625421567</v>
       </c>
       <c r="E12" t="n">
         <v>24560000000</v>
@@ -567,13 +567,13 @@
         <v>1971</v>
       </c>
       <c r="B13" t="n">
-        <v>145291189920</v>
+        <v>116905785919.758</v>
       </c>
       <c r="C13" t="n">
         <v>3743699982</v>
       </c>
       <c r="D13" t="n">
-        <v>38.809517487665</v>
+        <v>31.2273383235435</v>
       </c>
       <c r="E13" t="n">
         <v>24560000000</v>
@@ -584,13 +584,13 @@
         <v>1972</v>
       </c>
       <c r="B14" t="n">
-        <v>147958953412</v>
+        <v>119097279235.184</v>
       </c>
       <c r="C14" t="n">
         <v>3819225827</v>
       </c>
       <c r="D14" t="n">
-        <v>38.740561599161</v>
+        <v>31.1836179974556</v>
       </c>
       <c r="E14" t="n">
         <v>24560000000</v>
@@ -601,13 +601,13 @@
         <v>1973</v>
       </c>
       <c r="B15" t="n">
-        <v>150641011214</v>
+        <v>121305620127.54</v>
       </c>
       <c r="C15" t="n">
         <v>3895563337</v>
       </c>
       <c r="D15" t="n">
-        <v>38.6698914078008</v>
+        <v>31.1394295596174</v>
       </c>
       <c r="E15" t="n">
         <v>24560000000</v>
@@ -618,13 +618,13 @@
         <v>1974</v>
       </c>
       <c r="B16" t="n">
-        <v>153295983190</v>
+        <v>123502074533.898</v>
       </c>
       <c r="C16" t="n">
         <v>3971509423</v>
       </c>
       <c r="D16" t="n">
-        <v>38.5989221886834</v>
+        <v>31.097011584227</v>
       </c>
       <c r="E16" t="n">
         <v>24560000000</v>
@@ -635,13 +635,13 @@
         <v>1975</v>
       </c>
       <c r="B17" t="n">
-        <v>155893797384</v>
+        <v>125658063106.646</v>
       </c>
       <c r="C17" t="n">
         <v>4045995643</v>
       </c>
       <c r="D17" t="n">
-        <v>38.5303918094209</v>
+        <v>31.0573896252329</v>
       </c>
       <c r="E17" t="n">
         <v>24560000000</v>
@@ -652,13 +652,13 @@
         <v>1976</v>
       </c>
       <c r="B18" t="n">
-        <v>158436691982</v>
+        <v>127781099506.3</v>
       </c>
       <c r="C18" t="n">
         <v>4119357126</v>
       </c>
       <c r="D18" t="n">
-        <v>38.4615091956948</v>
+        <v>31.0196702052824</v>
       </c>
       <c r="E18" t="n">
         <v>24560000000</v>
@@ -669,13 +669,13 @@
         <v>1977</v>
       </c>
       <c r="B19" t="n">
-        <v>160973886364</v>
+        <v>129899549772.532</v>
       </c>
       <c r="C19" t="n">
         <v>4192227909</v>
       </c>
       <c r="D19" t="n">
-        <v>38.3981715350963</v>
+        <v>30.9858033943383</v>
       </c>
       <c r="E19" t="n">
         <v>24560000000</v>
@@ -686,13 +686,13 @@
         <v>1978</v>
       </c>
       <c r="B20" t="n">
-        <v>163561261684</v>
+        <v>132058161487.268</v>
       </c>
       <c r="C20" t="n">
         <v>4266388771</v>
       </c>
       <c r="D20" t="n">
-        <v>38.3371676758053</v>
+        <v>30.9531476327028</v>
       </c>
       <c r="E20" t="n">
         <v>24560000000</v>
@@ -703,13 +703,13 @@
         <v>1979</v>
       </c>
       <c r="B21" t="n">
-        <v>166225688474</v>
+        <v>134282003828.111</v>
       </c>
       <c r="C21" t="n">
         <v>4342683622</v>
       </c>
       <c r="D21" t="n">
-        <v>38.2771813336578</v>
+        <v>30.9214337300188</v>
       </c>
       <c r="E21" t="n">
         <v>24560000000</v>
@@ -720,13 +720,13 @@
         <v>1980</v>
       </c>
       <c r="B22" t="n">
-        <v>168913154050</v>
+        <v>136529954849.172</v>
       </c>
       <c r="C22" t="n">
         <v>4419898354</v>
       </c>
       <c r="D22" t="n">
-        <v>38.216524571687</v>
+        <v>30.8898404248625</v>
       </c>
       <c r="E22" t="n">
         <v>24560000000</v>
@@ -737,13 +737,13 @@
         <v>1981</v>
       </c>
       <c r="B23" t="n">
-        <v>171657202414</v>
+        <v>138829323284.331</v>
       </c>
       <c r="C23" t="n">
         <v>4498896208</v>
       </c>
       <c r="D23" t="n">
-        <v>38.1554040097117</v>
+        <v>30.8585299295109</v>
       </c>
       <c r="E23" t="n">
         <v>24560000000</v>
@@ -754,13 +754,13 @@
         <v>1982</v>
       </c>
       <c r="B24" t="n">
-        <v>174488716964</v>
+        <v>141199386913.296</v>
       </c>
       <c r="C24" t="n">
         <v>4581184386</v>
       </c>
       <c r="D24" t="n">
-        <v>38.0881235641232</v>
+        <v>30.8215900117004</v>
       </c>
       <c r="E24" t="n">
         <v>24560000000</v>
@@ -771,13 +771,13 @@
         <v>1983</v>
       </c>
       <c r="B25" t="n">
-        <v>177328167600</v>
+        <v>143579370969.895</v>
       </c>
       <c r="C25" t="n">
         <v>4664271390</v>
       </c>
       <c r="D25" t="n">
-        <v>38.0184069006328</v>
+        <v>30.7828080668126</v>
       </c>
       <c r="E25" t="n">
         <v>24560000000</v>
@@ -788,13 +788,13 @@
         <v>1984</v>
       </c>
       <c r="B26" t="n">
-        <v>180150217476</v>
+        <v>145951231124.002</v>
       </c>
       <c r="C26" t="n">
         <v>4747110434</v>
       </c>
       <c r="D26" t="n">
-        <v>37.9494473492166</v>
+        <v>30.7452782388762</v>
       </c>
       <c r="E26" t="n">
         <v>24560000000</v>
@@ -805,13 +805,13 @@
         <v>1985</v>
       </c>
       <c r="B27" t="n">
-        <v>183029881132</v>
+        <v>148368890699.914</v>
       </c>
       <c r="C27" t="n">
         <v>4831549278</v>
       </c>
       <c r="D27" t="n">
-        <v>37.8822341656348</v>
+        <v>30.7083467771916</v>
       </c>
       <c r="E27" t="n">
         <v>24560000000</v>
@@ -822,13 +822,13 @@
         <v>1986</v>
       </c>
       <c r="B28" t="n">
-        <v>185998016004</v>
+        <v>150853906113.619</v>
       </c>
       <c r="C28" t="n">
         <v>4918300108</v>
       </c>
       <c r="D28" t="n">
-        <v>37.8175410039456</v>
+        <v>30.6719603930315</v>
       </c>
       <c r="E28" t="n">
         <v>24560000000</v>
@@ -839,13 +839,13 @@
         <v>1987</v>
       </c>
       <c r="B29" t="n">
-        <v>189051156132</v>
+        <v>153405076328.032</v>
       </c>
       <c r="C29" t="n">
         <v>5007413232</v>
       </c>
       <c r="D29" t="n">
-        <v>37.7542550161157</v>
+        <v>30.6355935131722</v>
       </c>
       <c r="E29" t="n">
         <v>24560000000</v>
@@ -856,13 +856,13 @@
         <v>1988</v>
       </c>
       <c r="B30" t="n">
-        <v>192142774434</v>
+        <v>155979778923.907</v>
       </c>
       <c r="C30" t="n">
         <v>5097327302</v>
       </c>
       <c r="D30" t="n">
-        <v>37.6948080925881</v>
+        <v>30.6003067259791</v>
       </c>
       <c r="E30" t="n">
         <v>24560000000</v>
@@ -873,13 +873,13 @@
         <v>1989</v>
       </c>
       <c r="B31" t="n">
-        <v>195275875760</v>
+        <v>158574027811.342</v>
       </c>
       <c r="C31" t="n">
         <v>5187599374</v>
       </c>
       <c r="D31" t="n">
-        <v>37.6428212129706</v>
+        <v>30.5679017169497</v>
       </c>
       <c r="E31" t="n">
         <v>24560000000</v>
@@ -890,13 +890,13 @@
         <v>1990</v>
       </c>
       <c r="B32" t="n">
-        <v>198438953190</v>
+        <v>161185661816.182</v>
       </c>
       <c r="C32" t="n">
         <v>5278967811</v>
       </c>
       <c r="D32" t="n">
-        <v>37.5904836503274</v>
+        <v>30.5335564805515</v>
       </c>
       <c r="E32" t="n">
         <v>24560000000</v>
@@ -907,13 +907,13 @@
         <v>1991</v>
       </c>
       <c r="B33" t="n">
-        <v>202333251392</v>
+        <v>165030717186.324</v>
       </c>
       <c r="C33" t="n">
         <v>5367992660</v>
       </c>
       <c r="D33" t="n">
-        <v>37.6925350326392</v>
+        <v>30.74346923312</v>
       </c>
       <c r="E33" t="n">
         <v>24560000000</v>
@@ -924,13 +924,13 @@
         <v>1992</v>
       </c>
       <c r="B34" t="n">
-        <v>208428344660</v>
+        <v>168767478077.811</v>
       </c>
       <c r="C34" t="n">
         <v>5456438624.5</v>
       </c>
       <c r="D34" t="n">
-        <v>38.198605171537</v>
+        <v>30.9299691047612</v>
       </c>
       <c r="E34" t="n">
         <v>24560000000</v>
@@ -941,13 +941,13 @@
         <v>1993</v>
       </c>
       <c r="B35" t="n">
-        <v>215303322478</v>
+        <v>172467088415.769</v>
       </c>
       <c r="C35" t="n">
         <v>5543904800</v>
       </c>
       <c r="D35" t="n">
-        <v>38.8360425088829</v>
+        <v>31.1093163821589</v>
       </c>
       <c r="E35" t="n">
         <v>24560000000</v>
@@ -958,13 +958,13 @@
         <v>1994</v>
       </c>
       <c r="B36" t="n">
-        <v>218868909332</v>
+        <v>176613969341.306</v>
       </c>
       <c r="C36" t="n">
         <v>5629775894.5</v>
       </c>
       <c r="D36" t="n">
-        <v>38.8770198731753</v>
+        <v>31.3714031696802</v>
       </c>
       <c r="E36" t="n">
         <v>24560000000</v>
@@ -975,13 +975,13 @@
         <v>1995</v>
       </c>
       <c r="B37" t="n">
-        <v>222076568202</v>
+        <v>180949523007.784</v>
       </c>
       <c r="C37" t="n">
         <v>5715247477</v>
       </c>
       <c r="D37" t="n">
-        <v>38.8568594965848</v>
+        <v>31.660837739045</v>
       </c>
       <c r="E37" t="n">
         <v>24560000000</v>
@@ -992,13 +992,13 @@
         <v>1996</v>
       </c>
       <c r="B38" t="n">
-        <v>225318992346</v>
+        <v>185578900866.44</v>
       </c>
       <c r="C38" t="n">
         <v>5801190546.5</v>
       </c>
       <c r="D38" t="n">
-        <v>38.840129545812</v>
+        <v>31.9897957805238</v>
       </c>
       <c r="E38" t="n">
         <v>24560000000</v>
@@ -1009,13 +1009,13 @@
         <v>1997</v>
       </c>
       <c r="B39" t="n">
-        <v>228548725572</v>
+        <v>190292772382.701</v>
       </c>
       <c r="C39" t="n">
         <v>5886866405.5</v>
       </c>
       <c r="D39" t="n">
-        <v>38.8234945094848</v>
+        <v>32.3249687142405</v>
       </c>
       <c r="E39" t="n">
         <v>24560000000</v>
@@ -1026,13 +1026,13 @@
         <v>1998</v>
       </c>
       <c r="B40" t="n">
-        <v>233629865120</v>
+        <v>193969550840.186</v>
       </c>
       <c r="C40" t="n">
         <v>5972206291.5</v>
       </c>
       <c r="D40" t="n">
-        <v>39.1195236260536</v>
+        <v>32.4787091022382</v>
       </c>
       <c r="E40" t="n">
         <v>24560000000</v>
@@ -1043,13 +1043,13 @@
         <v>1999</v>
       </c>
       <c r="B41" t="n">
-        <v>236626376502</v>
+        <v>198489664853.898</v>
       </c>
       <c r="C41" t="n">
         <v>6056396446</v>
       </c>
       <c r="D41" t="n">
-        <v>39.0704899541842</v>
+        <v>32.7735587694217</v>
       </c>
       <c r="E41" t="n">
         <v>24560000000</v>
@@ -1060,13 +1060,13 @@
         <v>2000</v>
       </c>
       <c r="B42" t="n">
-        <v>243025205448</v>
+        <v>204413699187.759</v>
       </c>
       <c r="C42" t="n">
         <v>6139712296.5</v>
       </c>
       <c r="D42" t="n">
-        <v>39.5825070804277</v>
+        <v>33.2936934690387</v>
       </c>
       <c r="E42" t="n">
         <v>24560000000</v>
@@ -1077,13 +1077,13 @@
         <v>2001</v>
       </c>
       <c r="B43" t="n">
-        <v>246165671448</v>
+        <v>209192951734.623</v>
       </c>
       <c r="C43" t="n">
         <v>6222770459.5</v>
       </c>
       <c r="D43" t="n">
-        <v>39.5588545407763</v>
+        <v>33.6173338059189</v>
       </c>
       <c r="E43" t="n">
         <v>24560000000</v>
@@ -1094,13 +1094,13 @@
         <v>2002</v>
       </c>
       <c r="B44" t="n">
-        <v>249677017148</v>
+        <v>214026090700.423</v>
       </c>
       <c r="C44" t="n">
         <v>6305069108</v>
       </c>
       <c r="D44" t="n">
-        <v>39.5994100732702</v>
+        <v>33.9450824462594</v>
       </c>
       <c r="E44" t="n">
         <v>24560000000</v>
@@ -1111,13 +1111,13 @@
         <v>2003</v>
       </c>
       <c r="B45" t="n">
-        <v>252727192718</v>
+        <v>219500949036.431</v>
       </c>
       <c r="C45" t="n">
         <v>6387110221</v>
       </c>
       <c r="D45" t="n">
-        <v>39.5683155563944</v>
+        <v>34.3662378511553</v>
       </c>
       <c r="E45" t="n">
         <v>24560000000</v>
@@ -1128,13 +1128,13 @@
         <v>2004</v>
       </c>
       <c r="B46" t="n">
-        <v>255793711480</v>
+        <v>226806155547.663</v>
       </c>
       <c r="C46" t="n">
         <v>6469986725.5</v>
       </c>
       <c r="D46" t="n">
-        <v>39.5354306480795</v>
+        <v>35.0551191478891</v>
       </c>
       <c r="E46" t="n">
         <v>24560000000</v>
@@ -1145,13 +1145,13 @@
         <v>2005</v>
       </c>
       <c r="B47" t="n">
-        <v>258821777848</v>
+        <v>234288890822.43</v>
       </c>
       <c r="C47" t="n">
         <v>6552921748.5</v>
       </c>
       <c r="D47" t="n">
-        <v>39.4971568075333</v>
+        <v>35.75334786747</v>
       </c>
       <c r="E47" t="n">
         <v>24560000000</v>
@@ -1162,13 +1162,13 @@
         <v>2006</v>
       </c>
       <c r="B48" t="n">
-        <v>262770211384</v>
+        <v>243597463859.672</v>
       </c>
       <c r="C48" t="n">
         <v>6636906506</v>
       </c>
       <c r="D48" t="n">
-        <v>39.5922725665107</v>
+        <v>36.7034647300593</v>
       </c>
       <c r="E48" t="n">
         <v>24560000000</v>
@@ -1179,13 +1179,13 @@
         <v>2007</v>
       </c>
       <c r="B49" t="n">
-        <v>267651631518</v>
+        <v>252546580698.053</v>
       </c>
       <c r="C49" t="n">
         <v>6721269564.5</v>
       </c>
       <c r="D49" t="n">
-        <v>39.8215886075551</v>
+        <v>37.5742377648322</v>
       </c>
       <c r="E49" t="n">
         <v>24560000000</v>
@@ -1196,13 +1196,13 @@
         <v>2008</v>
       </c>
       <c r="B50" t="n">
-        <v>280040490308</v>
+        <v>259987714464.816</v>
       </c>
       <c r="C50" t="n">
         <v>6807134829</v>
       </c>
       <c r="D50" t="n">
-        <v>41.13926010617</v>
+        <v>38.1934133810906</v>
       </c>
       <c r="E50" t="n">
         <v>24560000000</v>
@@ -1213,13 +1213,13 @@
         <v>2009</v>
       </c>
       <c r="B51" t="n">
-        <v>282949931350</v>
+        <v>262885978985.498</v>
       </c>
       <c r="C51" t="n">
         <v>6893059682</v>
       </c>
       <c r="D51" t="n">
-        <v>41.0485248066071</v>
+        <v>38.1377778683649</v>
       </c>
       <c r="E51" t="n">
         <v>24560000000</v>
@@ -1230,13 +1230,13 @@
         <v>2010</v>
       </c>
       <c r="B52" t="n">
-        <v>286965323068</v>
+        <v>271259185219.392</v>
       </c>
       <c r="C52" t="n">
         <v>6977532852</v>
       </c>
       <c r="D52" t="n">
-        <v>41.1270472178065</v>
+        <v>38.8760885793092</v>
       </c>
       <c r="E52" t="n">
         <v>24560000000</v>
@@ -1247,13 +1247,13 @@
         <v>2011</v>
       </c>
       <c r="B53" t="n">
-        <v>301543479946</v>
+        <v>280163193283.38</v>
       </c>
       <c r="C53" t="n">
         <v>7063021186.5</v>
       </c>
       <c r="D53" t="n">
-        <v>42.693271333004</v>
+        <v>39.6661974933437</v>
       </c>
       <c r="E53" t="n">
         <v>24560000000</v>
@@ -1264,13 +1264,13 @@
         <v>2012</v>
       </c>
       <c r="B54" t="n">
-        <v>301450670158</v>
+        <v>288136653287.041</v>
       </c>
       <c r="C54" t="n">
         <v>7152554638</v>
       </c>
       <c r="D54" t="n">
-        <v>42.1458745042585</v>
+        <v>40.2844393185383</v>
       </c>
       <c r="E54" t="n">
         <v>24560000000</v>
@@ -1281,13 +1281,13 @@
         <v>2013</v>
       </c>
       <c r="B55" t="n">
-        <v>305302423446</v>
+        <v>296055426674.13</v>
       </c>
       <c r="C55" t="n">
         <v>7241970754</v>
       </c>
       <c r="D55" t="n">
-        <v>42.1573676305404</v>
+        <v>40.8805056980668</v>
       </c>
       <c r="E55" t="n">
         <v>24560000000</v>
@@ -1298,13 +1298,13 @@
         <v>2014</v>
       </c>
       <c r="B56" t="n">
-        <v>314368049460</v>
+        <v>302853778633.931</v>
       </c>
       <c r="C56" t="n">
         <v>7330518889.5</v>
       </c>
       <c r="D56" t="n">
-        <v>42.8848290549105</v>
+        <v>41.314098387732</v>
       </c>
       <c r="E56" t="n">
         <v>24560000000</v>
@@ -1315,13 +1315,13 @@
         <v>2015</v>
       </c>
       <c r="B57" t="n">
-        <v>317649884444</v>
+        <v>307831674387.381</v>
       </c>
       <c r="C57" t="n">
         <v>7418010158.5</v>
       </c>
       <c r="D57" t="n">
-        <v>42.8214410140727</v>
+        <v>41.4978771678614</v>
       </c>
       <c r="E57" t="n">
         <v>24560000000</v>
@@ -1332,13 +1332,13 @@
         <v>2016</v>
       </c>
       <c r="B58" t="n">
-        <v>321513404594</v>
+        <v>315346920166.238</v>
       </c>
       <c r="C58" t="n">
         <v>7505014971.5</v>
       </c>
       <c r="D58" t="n">
-        <v>42.8398085566697</v>
+        <v>42.0181600388215</v>
       </c>
       <c r="E58" t="n">
         <v>24560000000</v>
@@ -1349,13 +1349,13 @@
         <v>2017</v>
       </c>
       <c r="B59" t="n">
-        <v>325289038948</v>
+        <v>324934498391.236</v>
       </c>
       <c r="C59" t="n">
         <v>7590561081.5</v>
       </c>
       <c r="D59" t="n">
-        <v>42.8544129288158</v>
+        <v>42.8077048458484</v>
       </c>
       <c r="E59" t="n">
         <v>24560000000</v>
@@ -1366,13 +1366,13 @@
         <v>2018</v>
       </c>
       <c r="B60" t="n">
-        <v>332675912068</v>
+        <v>336030805260.172</v>
       </c>
       <c r="C60" t="n">
         <v>7672920573.5</v>
       </c>
       <c r="D60" t="n">
-        <v>43.3571426787558</v>
+        <v>43.7943807760403</v>
       </c>
       <c r="E60" t="n">
         <v>24560000000</v>
@@ -1383,13 +1383,13 @@
         <v>2019</v>
       </c>
       <c r="B61" t="n">
-        <v>335787075122</v>
+        <v>346822515934.571</v>
       </c>
       <c r="C61" t="n">
         <v>7753300984</v>
       </c>
       <c r="D61" t="n">
-        <v>43.3089178164169</v>
+        <v>44.7322394229615</v>
       </c>
       <c r="E61" t="n">
         <v>24560000000</v>
@@ -1400,13 +1400,13 @@
         <v>2020</v>
       </c>
       <c r="B62" t="n">
-        <v>338406429784</v>
+        <v>348097087843.443</v>
       </c>
       <c r="C62" t="n">
         <v>7832554966.5</v>
       </c>
       <c r="D62" t="n">
-        <v>43.2051139419221</v>
+        <v>44.4423421644995</v>
       </c>
       <c r="E62" t="n">
         <v>24560000000</v>
@@ -1417,13 +1417,13 @@
         <v>2021</v>
       </c>
       <c r="B63" t="n">
-        <v>412033210302</v>
+        <v>368138251341.481</v>
       </c>
       <c r="C63" t="n">
         <v>7897696837</v>
       </c>
       <c r="D63" t="n">
-        <v>52.1713125745295</v>
+        <v>46.6133682945116</v>
       </c>
       <c r="E63" t="n">
         <v>24560000000</v>
@@ -1434,13 +1434,13 @@
         <v>2022</v>
       </c>
       <c r="B64" t="n">
-        <v>428725443508</v>
+        <v>389580546311.921</v>
       </c>
       <c r="C64" t="n">
         <v>7966795241.5</v>
       </c>
       <c r="D64" t="n">
-        <v>53.8140407167386</v>
+        <v>48.9005345942054</v>
       </c>
       <c r="E64" t="n">
         <v>24560000000</v>
@@ -1451,13 +1451,13 @@
         <v>2023</v>
       </c>
       <c r="B65" t="n">
-        <v>437241095994</v>
+        <v>404176582142.453</v>
       </c>
       <c r="C65" t="n">
         <v>8038502718</v>
       </c>
       <c r="D65" t="n">
-        <v>54.393350519733</v>
+        <v>50.2800827867373</v>
       </c>
       <c r="E65" t="n">
         <v>24560000000</v>
